--- a/convertextract/cors/correspondence_spreadsheets/tssilhqut-in_duolos.xlsx
+++ b/convertextract/cors/correspondence_spreadsheets/tssilhqut-in_duolos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python27\Lib\site-packages\convertextract\cors\correspondence_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinea\convertextract\convertextract\cors\correspondence_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4452"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,23 +184,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,23 +219,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,48 +373,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
